--- a/Excel/Sample.xlsx
+++ b/Excel/Sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Tools\ExcelTool\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Tools\ExcelConfigTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A7C198-A7AA-4547-8700-1E73C081A9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105B9D65-A8AF-448D-9103-BBDF47187864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>id|int</t>
   </si>
@@ -42,10 +42,28 @@
     <t>name|string</t>
   </si>
   <si>
-    <t>endTime|DateTime|null</t>
-  </si>
-  <si>
-    <t>startTime|DateTime</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>fswdfs</t>
+  </si>
+  <si>
+    <t>bbbbb</t>
+  </si>
+  <si>
+    <t>endTime|time|null</t>
+  </si>
+  <si>
+    <t>startTime|time</t>
+  </si>
+  <si>
+    <t>2023-01-03-05-05-11</t>
   </si>
 </sst>
 </file>
@@ -81,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,43 +382,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
+      <c r="C3" s="1">
+        <v>200</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>300</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Sample.xlsx
+++ b/Excel/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Tools\ExcelConfigTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105B9D65-A8AF-448D-9103-BBDF47187864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0925D7A9-2988-4D30-BDE3-2BBFCC54EB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="5040" windowWidth="15390" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>id|int</t>
   </si>
   <si>
-    <t>level|int</t>
-  </si>
-  <si>
     <t>isActive|bool</t>
   </si>
   <si>
@@ -64,6 +61,18 @@
   </si>
   <si>
     <t>2023-01-03-05-05-11</t>
+  </si>
+  <si>
+    <t>level|int^id(Level)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -385,14 +394,14 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -405,22 +414,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -428,22 +437,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -451,22 +460,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -474,13 +483,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>300</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
